--- a/docss/trend/hungary/E_neuron.xlsx
+++ b/docss/trend/hungary/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\hungary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\hungary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1581,7 +1578,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,202 +1601,202 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.53318796120584011</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.60546117462217808</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.49657888431102037</v>
-      </c>
-      <c r="E2" s="6"/>
+      <c r="B2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.497</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.54138310253620148</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.60949300229549408</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.4868901465088129</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="B3">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.40027493517845869</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.49452915135771036</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.31402553431689739</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.495</v>
+      </c>
+      <c r="D4">
+        <v>0.314</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.48083448223769665</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.5520404577255249</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.43840288836508989</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="B5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.438</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.46956460969522595</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.67839105892926455</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.29832943715155125</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="B6">
+        <v>0.47</v>
+      </c>
+      <c r="C6">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.52131087891757488</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.65928631462156773</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.42697735875844955</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="B7">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.4270625920034945</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.49717628955841064</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.35115564614534378</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="B8">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.497</v>
+      </c>
+      <c r="D8">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.57749008992686868</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.74823453649878502</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.44484121445566416</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="B9">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.748</v>
+      </c>
+      <c r="D9">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.57347419392317533</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.68330811522901058</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.49028622452169657</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="B10">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.49</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.66804186487570405</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.76295803487300873</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.60019098734483123</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="B11">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.60847008926793933</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.65352663211524487</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.5972908791154623</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="B12">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.65610578097403049</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.69502212852239609</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.6317463549785316</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="B13">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.69011750444769859</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.81781971640884876</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.59365060552954674</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="B14">
+        <v>0.69</v>
+      </c>
+      <c r="C14">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
